--- a/sks-kobe-t/pdf/report1.xlsx
+++ b/sks-kobe-t/pdf/report1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saime\Documents\GitHub\sks-kobe\sks-kobe-t\pdf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nishi\開発\sks-kobe\sks-kobe-t\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B52B3C6-55F6-4676-A32F-F68295B5AD51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1728EB43-46E2-432C-ACC0-84C3D49FED2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{67705DE9-D51C-41E7-8EAF-0A0986583F98}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{67705DE9-D51C-41E7-8EAF-0A0986583F98}"/>
   </bookViews>
   <sheets>
     <sheet name="2020.8.26" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>警　備　報　告　書</t>
   </si>
@@ -164,18 +164,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">   名×　 H</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  名×　 H</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   名× 　H</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>備　考</t>
     <rPh sb="2" eb="3">
       <t>コウ</t>
@@ -234,7 +222,28 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">・ゲート延長 (　　　　～　　　　）  </t>
+    <t>(　　　　～　　　　）  名×  　 H</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・VP作業　　（　　　　～　　　　）   名×　     H</t>
+    <rPh sb="3" eb="5">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・昼作業　　（　　　　～　　　　）   名×　     H</t>
+    <rPh sb="1" eb="2">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ゲート延長 (　　　　～　　　　）   名×　     H</t>
     <rPh sb="4" eb="5">
       <t>エン</t>
     </rPh>
@@ -244,36 +253,15 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">・Ｍバース　 (　　　　～　　　　）  </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">・岸壁立哨　 (　　　　～　　　　）  </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">・空前立哨　 (　　　　～　　　　）  </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>(　　　　～　　　　）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">・VP作業　　（　　　　～　　　　）    </t>
-    <rPh sb="3" eb="5">
-      <t>サギョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">・昼作業　　（　　　　～　　　　） </t>
-    <rPh sb="1" eb="2">
-      <t>ヒル</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サギョウ</t>
-    </rPh>
+    <t>・Ｍバース　 (　　　　～　　　　）   名×　     H</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・岸壁立哨　 (　　　　～　　　　）   名×　     H</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・空前立哨　 (　　　　～　　　　）   名×　     H</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -870,63 +858,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
@@ -939,12 +870,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -956,6 +881,69 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1209,7 +1197,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>377825</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
@@ -1561,54 +1549,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA41775-65E6-4D47-931D-C6FA0AA5711F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="3" width="5.875" customWidth="1"/>
-    <col min="4" max="4" width="9.375" customWidth="1"/>
-    <col min="5" max="6" width="5.875" customWidth="1"/>
-    <col min="7" max="7" width="5.5" customWidth="1"/>
-    <col min="8" max="9" width="5.875" customWidth="1"/>
-    <col min="10" max="10" width="3.875" customWidth="1"/>
-    <col min="11" max="12" width="5.625" customWidth="1"/>
-    <col min="13" max="13" width="3.875" customWidth="1"/>
-    <col min="14" max="15" width="5.625" customWidth="1"/>
-    <col min="16" max="16" width="3.875" customWidth="1"/>
-    <col min="17" max="18" width="5.625" customWidth="1"/>
-    <col min="23" max="23" width="3.125" customWidth="1"/>
-    <col min="25" max="25" width="3.125" customWidth="1"/>
-    <col min="27" max="27" width="3.125" customWidth="1"/>
+    <col min="2" max="3" width="5.90625" customWidth="1"/>
+    <col min="4" max="4" width="9.36328125" customWidth="1"/>
+    <col min="5" max="6" width="5.90625" customWidth="1"/>
+    <col min="7" max="7" width="5.453125" customWidth="1"/>
+    <col min="8" max="9" width="5.90625" customWidth="1"/>
+    <col min="10" max="10" width="3.90625" customWidth="1"/>
+    <col min="11" max="12" width="5.6328125" customWidth="1"/>
+    <col min="13" max="13" width="3.90625" customWidth="1"/>
+    <col min="14" max="15" width="5.6328125" customWidth="1"/>
+    <col min="16" max="16" width="3.90625" customWidth="1"/>
+    <col min="17" max="18" width="5.6328125" customWidth="1"/>
+    <col min="23" max="23" width="3.08984375" customWidth="1"/>
+    <col min="25" max="25" width="3.08984375" customWidth="1"/>
+    <col min="27" max="27" width="3.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-    </row>
-    <row r="2" spans="1:18" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+    </row>
+    <row r="2" spans="1:18" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1628,7 +1619,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1652,7 +1643,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1676,7 +1667,7 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="10"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
         <v>5</v>
@@ -1702,17 +1693,17 @@
       <c r="Q5" s="12"/>
       <c r="R5" s="16"/>
     </row>
-    <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="58" t="s">
+    <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="60"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="72"/>
       <c r="I6" s="17"/>
       <c r="J6" s="18"/>
       <c r="K6" s="19"/>
@@ -1723,17 +1714,17 @@
       <c r="P6" s="19"/>
       <c r="R6" s="20"/>
     </row>
-    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="61" t="s">
+    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88"/>
       <c r="I7" s="21"/>
       <c r="J7" s="22"/>
       <c r="K7" s="23"/>
@@ -1745,8 +1736,8 @@
       <c r="Q7" s="23"/>
       <c r="R7" s="24"/>
     </row>
-    <row r="8" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="64" t="s">
+    <row r="8" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="89" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="17"/>
@@ -1767,8 +1758,8 @@
       <c r="Q8" s="19"/>
       <c r="R8" s="25"/>
     </row>
-    <row r="9" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="64"/>
+    <row r="9" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="89"/>
       <c r="B9" s="17" t="s">
         <v>11</v>
       </c>
@@ -1791,8 +1782,8 @@
       <c r="Q9" s="28"/>
       <c r="R9" s="25"/>
     </row>
-    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="64"/>
+    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="89"/>
       <c r="B10" s="17"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
@@ -1811,8 +1802,8 @@
       <c r="Q10" s="30"/>
       <c r="R10" s="32"/>
     </row>
-    <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="64"/>
+    <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="89"/>
       <c r="B11" s="33"/>
       <c r="C11" s="34"/>
       <c r="D11" s="35"/>
@@ -1831,8 +1822,8 @@
       <c r="Q11" s="36"/>
       <c r="R11" s="38"/>
     </row>
-    <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="64"/>
+    <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="89"/>
       <c r="B12" s="33"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
@@ -1851,8 +1842,8 @@
       <c r="Q12" s="36"/>
       <c r="R12" s="38"/>
     </row>
-    <row r="13" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="64"/>
+    <row r="13" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="89"/>
       <c r="B13" s="33"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
@@ -1871,8 +1862,8 @@
       <c r="Q13" s="36"/>
       <c r="R13" s="38"/>
     </row>
-    <row r="14" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="64"/>
+    <row r="14" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="89"/>
       <c r="B14" s="33"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
@@ -1891,8 +1882,8 @@
       <c r="Q14" s="36"/>
       <c r="R14" s="38"/>
     </row>
-    <row r="15" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="64"/>
+    <row r="15" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="89"/>
       <c r="B15" s="33"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
@@ -1911,8 +1902,8 @@
       <c r="Q15" s="36"/>
       <c r="R15" s="38"/>
     </row>
-    <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="64"/>
+    <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="89"/>
       <c r="B16" s="33"/>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
@@ -1931,8 +1922,8 @@
       <c r="Q16" s="36"/>
       <c r="R16" s="38"/>
     </row>
-    <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="64"/>
+    <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="89"/>
       <c r="B17" s="33"/>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
@@ -1951,8 +1942,8 @@
       <c r="Q17" s="36"/>
       <c r="R17" s="38"/>
     </row>
-    <row r="18" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="64"/>
+    <row r="18" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="89"/>
       <c r="B18" s="33"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
@@ -1971,8 +1962,8 @@
       <c r="Q18" s="36"/>
       <c r="R18" s="38"/>
     </row>
-    <row r="19" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="64"/>
+    <row r="19" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="89"/>
       <c r="B19" s="17"/>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
@@ -1991,8 +1982,8 @@
       <c r="Q19" s="36"/>
       <c r="R19" s="38"/>
     </row>
-    <row r="20" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="64"/>
+    <row r="20" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="89"/>
       <c r="B20" s="17"/>
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
@@ -2011,8 +2002,8 @@
       <c r="Q20" s="36"/>
       <c r="R20" s="38"/>
     </row>
-    <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="64"/>
+    <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="89"/>
       <c r="B21" s="17" t="s">
         <v>14</v>
       </c>
@@ -2035,8 +2026,8 @@
       <c r="Q21" s="26"/>
       <c r="R21" s="25"/>
     </row>
-    <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="65"/>
+    <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="90"/>
       <c r="B22" s="39" t="s">
         <v>16</v>
       </c>
@@ -2059,9 +2050,9 @@
       <c r="Q22" s="30"/>
       <c r="R22" s="32"/>
     </row>
-    <row r="23" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="54" t="s">
-        <v>39</v>
+    <row r="23" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="82" t="s">
+        <v>36</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>18</v>
@@ -2083,10 +2074,10 @@
       <c r="Q23" s="19"/>
       <c r="R23" s="25"/>
     </row>
-    <row r="24" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="55"/>
+    <row r="24" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="73"/>
       <c r="B24" s="19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -2105,8 +2096,8 @@
       <c r="Q24" s="19"/>
       <c r="R24" s="25"/>
     </row>
-    <row r="25" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="54" t="s">
+    <row r="25" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="82" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -2129,30 +2120,30 @@
       <c r="Q25" s="12"/>
       <c r="R25" s="16"/>
     </row>
-    <row r="26" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="55"/>
-      <c r="B26" s="73" t="s">
+    <row r="26" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="73"/>
+      <c r="B26" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="73"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
       <c r="R26" s="25"/>
     </row>
-    <row r="27" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="56"/>
+    <row r="27" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="76"/>
       <c r="B27" s="29" t="s">
         <v>22</v>
       </c>
@@ -2173,8 +2164,8 @@
       <c r="Q27" s="29"/>
       <c r="R27" s="32"/>
     </row>
-    <row r="28" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="55" t="s">
+    <row r="28" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="19" t="s">
@@ -2188,21 +2179,21 @@
       <c r="H28" s="29"/>
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="87"/>
-      <c r="O28" s="71" t="s">
+      <c r="K28" s="63"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="79" t="s">
         <v>25</v>
       </c>
       <c r="P28" s="81"/>
-      <c r="Q28" s="68" t="s">
+      <c r="Q28" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="R28" s="69"/>
-    </row>
-    <row r="29" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="55"/>
+      <c r="R28" s="78"/>
+    </row>
+    <row r="29" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="73"/>
       <c r="B29" s="19" t="s">
         <v>27</v>
       </c>
@@ -2212,19 +2203,19 @@
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
-      <c r="K29" s="83"/>
+      <c r="K29" s="62"/>
       <c r="L29" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="M29" s="82"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="79"/>
       <c r="P29" s="81"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="72"/>
-    </row>
-    <row r="30" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="55"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="80"/>
+    </row>
+    <row r="30" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="73"/>
       <c r="B30" s="19" t="s">
         <v>29</v>
       </c>
@@ -2236,17 +2227,17 @@
       <c r="H30" s="34"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="88"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="90"/>
-      <c r="O30" s="71"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="79"/>
       <c r="P30" s="81"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="72"/>
-    </row>
-    <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="55"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="80"/>
+    </row>
+    <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="73"/>
       <c r="B31" s="19" t="s">
         <v>30</v>
       </c>
@@ -2267,82 +2258,72 @@
       <c r="Q31" s="26"/>
       <c r="R31" s="40"/>
     </row>
-    <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="55"/>
+    <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="73"/>
       <c r="B32" s="19"/>
       <c r="C32" s="45" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D32" s="41"/>
       <c r="E32" s="42" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F32" s="41"/>
       <c r="G32" s="34"/>
       <c r="H32" s="34"/>
-      <c r="I32" s="36" t="s">
-        <v>31</v>
-      </c>
+      <c r="I32" s="36"/>
       <c r="J32" s="41"/>
       <c r="K32" s="47" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="L32" s="41"/>
       <c r="M32" s="43"/>
       <c r="N32" s="36"/>
       <c r="O32" s="36"/>
       <c r="P32" s="36"/>
-      <c r="Q32" s="43" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q32" s="43"/>
       <c r="R32" s="44"/>
     </row>
-    <row r="33" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="55"/>
+    <row r="33" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="73"/>
       <c r="B33" s="19"/>
       <c r="C33" s="45" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D33" s="41"/>
       <c r="E33" s="42" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F33" s="41"/>
       <c r="G33" s="34"/>
       <c r="H33" s="34"/>
-      <c r="I33" s="36" t="s">
-        <v>31</v>
-      </c>
+      <c r="I33" s="36"/>
       <c r="J33" s="41"/>
       <c r="K33" s="47" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="L33" s="41"/>
       <c r="M33" s="46"/>
       <c r="N33" s="43"/>
       <c r="O33" s="43"/>
       <c r="P33" s="43"/>
-      <c r="Q33" s="43" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q33" s="43"/>
       <c r="R33" s="44"/>
     </row>
-    <row r="34" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="55"/>
+    <row r="34" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="73"/>
       <c r="B34" s="19"/>
       <c r="C34" s="45" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D34" s="41"/>
       <c r="E34" s="42" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F34" s="43"/>
       <c r="G34" s="34"/>
       <c r="H34" s="34"/>
-      <c r="I34" s="36" t="s">
-        <v>33</v>
-      </c>
+      <c r="I34" s="36"/>
       <c r="J34" s="41"/>
       <c r="K34" s="47" t="s">
         <v>46</v>
@@ -2352,26 +2333,22 @@
       <c r="N34" s="41"/>
       <c r="O34" s="41"/>
       <c r="P34" s="41"/>
-      <c r="Q34" s="43" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q34" s="43"/>
       <c r="R34" s="44"/>
     </row>
-    <row r="35" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="55"/>
+    <row r="35" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="73"/>
       <c r="B35" s="19"/>
       <c r="C35" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="42" t="s">
         <v>43</v>
-      </c>
-      <c r="E35" s="42" t="s">
-        <v>50</v>
       </c>
       <c r="F35" s="27"/>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
-      <c r="I35" s="36" t="s">
-        <v>33</v>
-      </c>
+      <c r="I35" s="36"/>
       <c r="K35" s="47" t="s">
         <v>47</v>
       </c>
@@ -2380,27 +2357,23 @@
       <c r="N35" s="41"/>
       <c r="O35" s="41"/>
       <c r="P35" s="41"/>
-      <c r="Q35" s="43" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q35" s="43"/>
       <c r="R35" s="44"/>
     </row>
-    <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="55"/>
+    <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="73"/>
       <c r="B36" s="19"/>
       <c r="C36" s="45" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D36" s="41"/>
       <c r="E36" s="42" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F36" s="41"/>
       <c r="G36" s="41"/>
       <c r="H36" s="41"/>
-      <c r="I36" s="36" t="s">
-        <v>33</v>
-      </c>
+      <c r="I36" s="36"/>
       <c r="J36" s="34"/>
       <c r="K36" s="45" t="s">
         <v>48</v>
@@ -2410,27 +2383,23 @@
       <c r="N36" s="36"/>
       <c r="O36" s="36"/>
       <c r="P36" s="36"/>
-      <c r="Q36" s="43" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q36" s="43"/>
       <c r="R36" s="44"/>
     </row>
-    <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="55"/>
+    <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="73"/>
       <c r="B37" s="19"/>
       <c r="C37" s="45" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D37" s="41"/>
       <c r="E37" s="42" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F37" s="41"/>
       <c r="G37" s="41"/>
       <c r="H37" s="41"/>
-      <c r="I37" s="36" t="s">
-        <v>33</v>
-      </c>
+      <c r="I37" s="36"/>
       <c r="J37" s="34"/>
       <c r="K37" s="45" t="s">
         <v>49</v>
@@ -2440,13 +2409,11 @@
       <c r="N37" s="36"/>
       <c r="O37" s="36"/>
       <c r="P37" s="36"/>
-      <c r="Q37" s="43" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q37" s="43"/>
       <c r="R37" s="44"/>
     </row>
-    <row r="38" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="56"/>
+    <row r="38" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="76"/>
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
@@ -2465,107 +2432,107 @@
       <c r="Q38" s="29"/>
       <c r="R38" s="32"/>
     </row>
-    <row r="39" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="55" t="s">
-        <v>34</v>
+    <row r="39" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="73" t="s">
+        <v>31</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="48" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F39" s="19"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="74"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="55"/>
       <c r="L39" s="34"/>
-      <c r="M39" s="79"/>
+      <c r="M39" s="60"/>
       <c r="N39" s="34"/>
       <c r="O39" s="34"/>
-      <c r="P39" s="79"/>
+      <c r="P39" s="60"/>
       <c r="Q39" s="34"/>
       <c r="R39" s="38"/>
     </row>
-    <row r="40" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="55"/>
+    <row r="40" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="73"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="74"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="55"/>
       <c r="L40" s="34"/>
-      <c r="M40" s="79"/>
+      <c r="M40" s="60"/>
       <c r="N40" s="34"/>
       <c r="O40" s="34"/>
-      <c r="P40" s="79"/>
+      <c r="P40" s="60"/>
       <c r="Q40" s="34"/>
       <c r="R40" s="38"/>
     </row>
-    <row r="41" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="55"/>
+    <row r="41" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="73"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="79"/>
-      <c r="K41" s="74"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="55"/>
       <c r="L41" s="34"/>
-      <c r="M41" s="79"/>
+      <c r="M41" s="60"/>
       <c r="N41" s="34"/>
       <c r="O41" s="34"/>
-      <c r="P41" s="79"/>
+      <c r="P41" s="60"/>
       <c r="Q41" s="34"/>
       <c r="R41" s="38"/>
     </row>
-    <row r="42" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="55"/>
+    <row r="42" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="73"/>
       <c r="C42" s="49"/>
       <c r="D42" s="49"/>
       <c r="E42" s="49"/>
       <c r="F42" s="49"/>
       <c r="G42" s="49"/>
       <c r="H42" s="49"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="79"/>
-      <c r="K42" s="74"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="55"/>
       <c r="L42" s="34"/>
-      <c r="M42" s="79"/>
+      <c r="M42" s="60"/>
       <c r="N42" s="34"/>
       <c r="O42" s="34"/>
-      <c r="P42" s="79"/>
+      <c r="P42" s="60"/>
       <c r="Q42" s="34"/>
       <c r="R42" s="38"/>
     </row>
-    <row r="43" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="55"/>
+    <row r="43" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="73"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="8"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="79"/>
-      <c r="K43" s="74"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="55"/>
       <c r="L43" s="34"/>
-      <c r="M43" s="79"/>
+      <c r="M43" s="60"/>
       <c r="N43" s="34"/>
       <c r="O43" s="34"/>
-      <c r="P43" s="79"/>
+      <c r="P43" s="60"/>
       <c r="Q43" s="34"/>
       <c r="R43" s="38"/>
     </row>
-    <row r="44" spans="1:18" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="66"/>
+    <row r="44" spans="1:18" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="74"/>
       <c r="B44" s="50"/>
       <c r="C44" s="50"/>
       <c r="D44" s="50"/>
@@ -2573,18 +2540,18 @@
       <c r="F44" s="50"/>
       <c r="G44" s="50"/>
       <c r="H44" s="50"/>
-      <c r="I44" s="67"/>
-      <c r="J44" s="80"/>
-      <c r="K44" s="75"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="80"/>
-      <c r="N44" s="76"/>
-      <c r="O44" s="76"/>
-      <c r="P44" s="80"/>
-      <c r="Q44" s="76"/>
-      <c r="R44" s="77"/>
-    </row>
-    <row r="45" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I44" s="75"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="61"/>
+      <c r="N44" s="57"/>
+      <c r="O44" s="57"/>
+      <c r="P44" s="61"/>
+      <c r="Q44" s="57"/>
+      <c r="R44" s="58"/>
+    </row>
+    <row r="45" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="51"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -2604,7 +2571,7 @@
       <c r="Q45" s="19"/>
       <c r="R45" s="19"/>
     </row>
-    <row r="46" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:18" ht="14" x14ac:dyDescent="0.2">
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -2621,12 +2588,17 @@
       <c r="O46" s="19"/>
       <c r="P46" s="19"/>
       <c r="R46" s="52" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:A22"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="L29:N29"/>
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="I39:I44"/>
@@ -2636,17 +2608,12 @@
     <mergeCell ref="Q30:R30"/>
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="O29:P29"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:A22"/>
-    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="O30:P30"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.27559055118110237" right="0.23622047244094491" top="0" bottom="0" header="0.39370078740157483" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="96" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/sks-kobe-t/pdf/report1.xlsx
+++ b/sks-kobe-t/pdf/report1.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nishi\開発\sks-kobe\sks-kobe-t\pdf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saime\Documents\GitHub\sks-kobe\sks-kobe-t\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1728EB43-46E2-432C-ACC0-84C3D49FED2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31ED096-F742-4102-A6EB-CBEA7938688A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{67705DE9-D51C-41E7-8EAF-0A0986583F98}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{67705DE9-D51C-41E7-8EAF-0A0986583F98}"/>
   </bookViews>
   <sheets>
     <sheet name="2020.8.26" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2020.8.26'!$A$1:$R$47</definedName>
@@ -34,77 +35,77 @@
   </si>
   <si>
     <t>（警備場所）</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>契約先</t>
   </si>
   <si>
     <t>ＰＩ・Ｃ－１５．１６．１７　ＫＩＣＴ　</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>商船港運株式会社　殿</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>（勤務時間）</t>
   </si>
   <si>
     <t>天候</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>担当警備士</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>自）   　  年   月 　日　  曜日　 時　  分</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>至）   　  年   月 　日　  曜日　 時　  分</t>
     <rPh sb="0" eb="1">
       <t>イタ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>状　　　況</t>
     <rPh sb="4" eb="5">
       <t>キョウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>　１．入出港船舶</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t xml:space="preserve"> 入港 </t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t xml:space="preserve"> 出港</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>　２．搬入出</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t xml:space="preserve">４．VP終了 </t>
   </si>
   <si>
     <t>　３．構内作業</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t xml:space="preserve">５．VP作業終了 </t>
   </si>
   <si>
     <t>　１．車両及び外来者等の入出管理</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>実　施</t>
@@ -114,19 +115,19 @@
     <rPh sb="2" eb="3">
       <t>シ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>　１．各ポスト立哨、車両等の誘導</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>　２．巡回点検ならびに各棟、各室、火気及び施錠確認</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t xml:space="preserve">　３．照明灯点消灯、水道メーター検針 </t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>特　　記</t>
@@ -136,11 +137,11 @@
     <rPh sb="3" eb="4">
       <t>キ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>　１．甲陽運輸</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>点灯</t>
@@ -150,58 +151,55 @@
   </si>
   <si>
     <t>　２．住井運輸</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ヤード照明</t>
   </si>
   <si>
     <t>　３．最終退出者</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>【残業】</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>備　考</t>
     <rPh sb="2" eb="3">
       <t>コウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Ｂ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Ｃ</t>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>株式会社新神戸セキュリティ</t>
   </si>
   <si>
     <t>　２．管理棟及び、その他の火災盗難等の警戒警備、並びに不法侵入者の警戒監視</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>重点</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>・早出➀</t>
     <rPh sb="1" eb="3">
       <t>ハヤデ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>・早出➁</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>・CY</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>・白出口</t>
@@ -211,26 +209,26 @@
     <rPh sb="2" eb="4">
       <t>デグチ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>・T字立哨</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>・分別立哨</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>(　　　　～　　　　）  名×  　 H</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>・VP作業　　（　　　　～　　　　）   名×　     H</t>
     <rPh sb="3" eb="5">
       <t>サギョウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>・昼作業　　（　　　　～　　　　）   名×　     H</t>
@@ -240,7 +238,7 @@
     <rPh sb="2" eb="4">
       <t>サギョウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>・ゲート延長 (　　　　～　　　　）   名×　     H</t>
@@ -250,31 +248,43 @@
     <rPh sb="5" eb="6">
       <t>（</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>・Ｍバース　 (　　　　～　　　　）   名×　     H</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>・岸壁立哨　 (　　　　～　　　　）   名×　     H</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>・空前立哨　 (　　　　～　　　　）   名×　     H</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Ｃ</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
@@ -339,7 +349,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -747,207 +757,238 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{027EF677-D699-45EF-9250-B77808D4C294}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -964,6 +1005,50 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361644</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>247492</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{031DDBBC-F9B7-4EAC-A7EF-5CDE3BB44A25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="9658350"/>
+          <a:ext cx="2447619" cy="1266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -972,10 +1057,10 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -990,8 +1075,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="895350" y="9791700"/>
-          <a:ext cx="1143000" cy="276225"/>
+          <a:off x="895350" y="9725025"/>
+          <a:ext cx="1076325" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1036,15 +1121,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
+      <xdr:colOff>114299</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1059,8 +1144,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2162174" y="9791700"/>
-          <a:ext cx="1114425" cy="266700"/>
+          <a:off x="2105024" y="9725025"/>
+          <a:ext cx="1114426" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1188,25 +1273,30 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>377825</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{674D2999-6E2D-467F-AC7A-DC21EABAE39E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C6E98B7-21D6-447C-A2AA-EF62EE66D059}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1229,22 +1319,18 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="790575" y="9648825"/>
-          <a:ext cx="2486025" cy="1266825"/>
+          <a:off x="3562350" y="714375"/>
+          <a:ext cx="2473325" cy="1266825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1554,52 +1640,52 @@
   </sheetPr>
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="3" width="5.90625" customWidth="1"/>
-    <col min="4" max="4" width="9.36328125" customWidth="1"/>
-    <col min="5" max="6" width="5.90625" customWidth="1"/>
-    <col min="7" max="7" width="5.453125" customWidth="1"/>
-    <col min="8" max="9" width="5.90625" customWidth="1"/>
-    <col min="10" max="10" width="3.90625" customWidth="1"/>
-    <col min="11" max="12" width="5.6328125" customWidth="1"/>
-    <col min="13" max="13" width="3.90625" customWidth="1"/>
-    <col min="14" max="15" width="5.6328125" customWidth="1"/>
-    <col min="16" max="16" width="3.90625" customWidth="1"/>
-    <col min="17" max="18" width="5.6328125" customWidth="1"/>
-    <col min="23" max="23" width="3.08984375" customWidth="1"/>
-    <col min="25" max="25" width="3.08984375" customWidth="1"/>
-    <col min="27" max="27" width="3.08984375" customWidth="1"/>
+    <col min="2" max="3" width="5.875" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="6" width="5.875" customWidth="1"/>
+    <col min="7" max="7" width="5.5" customWidth="1"/>
+    <col min="8" max="9" width="5.875" customWidth="1"/>
+    <col min="10" max="10" width="3.875" customWidth="1"/>
+    <col min="11" max="12" width="5.625" customWidth="1"/>
+    <col min="13" max="13" width="3.875" customWidth="1"/>
+    <col min="14" max="15" width="5.625" customWidth="1"/>
+    <col min="16" max="16" width="3.875" customWidth="1"/>
+    <col min="17" max="18" width="5.625" customWidth="1"/>
+    <col min="23" max="23" width="3.125" customWidth="1"/>
+    <col min="25" max="25" width="3.125" customWidth="1"/>
+    <col min="27" max="27" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-    </row>
-    <row r="2" spans="1:18" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+    </row>
+    <row r="2" spans="1:18" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1619,7 +1705,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1643,7 +1729,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1667,7 +1753,7 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="10"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
         <v>5</v>
@@ -1693,17 +1779,17 @@
       <c r="Q5" s="12"/>
       <c r="R5" s="16"/>
     </row>
-    <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="84" t="s">
+    <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="72"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="76"/>
       <c r="I6" s="17"/>
       <c r="J6" s="18"/>
       <c r="K6" s="19"/>
@@ -1714,17 +1800,17 @@
       <c r="P6" s="19"/>
       <c r="R6" s="20"/>
     </row>
-    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="86" t="s">
+    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="88"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="79"/>
       <c r="I7" s="21"/>
       <c r="J7" s="22"/>
       <c r="K7" s="23"/>
@@ -1736,8 +1822,8 @@
       <c r="Q7" s="23"/>
       <c r="R7" s="24"/>
     </row>
-    <row r="8" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="89" t="s">
+    <row r="8" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="80" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="17"/>
@@ -1758,8 +1844,8 @@
       <c r="Q8" s="19"/>
       <c r="R8" s="25"/>
     </row>
-    <row r="9" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="89"/>
+    <row r="9" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="80"/>
       <c r="B9" s="17" t="s">
         <v>11</v>
       </c>
@@ -1782,8 +1868,8 @@
       <c r="Q9" s="28"/>
       <c r="R9" s="25"/>
     </row>
-    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="89"/>
+    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="80"/>
       <c r="B10" s="17"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
@@ -1802,8 +1888,8 @@
       <c r="Q10" s="30"/>
       <c r="R10" s="32"/>
     </row>
-    <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="89"/>
+    <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="80"/>
       <c r="B11" s="33"/>
       <c r="C11" s="34"/>
       <c r="D11" s="35"/>
@@ -1822,8 +1908,8 @@
       <c r="Q11" s="36"/>
       <c r="R11" s="38"/>
     </row>
-    <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="89"/>
+    <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="80"/>
       <c r="B12" s="33"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
@@ -1842,8 +1928,8 @@
       <c r="Q12" s="36"/>
       <c r="R12" s="38"/>
     </row>
-    <row r="13" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="89"/>
+    <row r="13" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="80"/>
       <c r="B13" s="33"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
@@ -1862,8 +1948,8 @@
       <c r="Q13" s="36"/>
       <c r="R13" s="38"/>
     </row>
-    <row r="14" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="89"/>
+    <row r="14" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="80"/>
       <c r="B14" s="33"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
@@ -1882,8 +1968,8 @@
       <c r="Q14" s="36"/>
       <c r="R14" s="38"/>
     </row>
-    <row r="15" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="89"/>
+    <row r="15" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="80"/>
       <c r="B15" s="33"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
@@ -1902,8 +1988,8 @@
       <c r="Q15" s="36"/>
       <c r="R15" s="38"/>
     </row>
-    <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="89"/>
+    <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="80"/>
       <c r="B16" s="33"/>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
@@ -1922,8 +2008,8 @@
       <c r="Q16" s="36"/>
       <c r="R16" s="38"/>
     </row>
-    <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="89"/>
+    <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="80"/>
       <c r="B17" s="33"/>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
@@ -1942,8 +2028,8 @@
       <c r="Q17" s="36"/>
       <c r="R17" s="38"/>
     </row>
-    <row r="18" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="89"/>
+    <row r="18" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="80"/>
       <c r="B18" s="33"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
@@ -1962,8 +2048,8 @@
       <c r="Q18" s="36"/>
       <c r="R18" s="38"/>
     </row>
-    <row r="19" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="89"/>
+    <row r="19" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="80"/>
       <c r="B19" s="17"/>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
@@ -1982,8 +2068,8 @@
       <c r="Q19" s="36"/>
       <c r="R19" s="38"/>
     </row>
-    <row r="20" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="89"/>
+    <row r="20" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="80"/>
       <c r="B20" s="17"/>
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
@@ -2002,8 +2088,8 @@
       <c r="Q20" s="36"/>
       <c r="R20" s="38"/>
     </row>
-    <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="89"/>
+    <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="80"/>
       <c r="B21" s="17" t="s">
         <v>14</v>
       </c>
@@ -2026,8 +2112,8 @@
       <c r="Q21" s="26"/>
       <c r="R21" s="25"/>
     </row>
-    <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="90"/>
+    <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="81"/>
       <c r="B22" s="39" t="s">
         <v>16</v>
       </c>
@@ -2050,9 +2136,9 @@
       <c r="Q22" s="30"/>
       <c r="R22" s="32"/>
     </row>
-    <row r="23" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="82" t="s">
-        <v>36</v>
+    <row r="23" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="70" t="s">
+        <v>35</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>18</v>
@@ -2074,10 +2160,10 @@
       <c r="Q23" s="19"/>
       <c r="R23" s="25"/>
     </row>
-    <row r="24" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="73"/>
+    <row r="24" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="71"/>
       <c r="B24" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -2096,8 +2182,8 @@
       <c r="Q24" s="19"/>
       <c r="R24" s="25"/>
     </row>
-    <row r="25" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="82" t="s">
+    <row r="25" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="70" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -2120,30 +2206,30 @@
       <c r="Q25" s="12"/>
       <c r="R25" s="16"/>
     </row>
-    <row r="26" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="73"/>
-      <c r="B26" s="54" t="s">
+    <row r="26" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="71"/>
+      <c r="B26" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
       <c r="R26" s="25"/>
     </row>
-    <row r="27" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="76"/>
+    <row r="27" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="72"/>
       <c r="B27" s="29" t="s">
         <v>22</v>
       </c>
@@ -2164,8 +2250,8 @@
       <c r="Q27" s="29"/>
       <c r="R27" s="32"/>
     </row>
-    <row r="28" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="73" t="s">
+    <row r="28" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="71" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="19" t="s">
@@ -2179,21 +2265,21 @@
       <c r="H28" s="29"/>
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="79" t="s">
+      <c r="K28" s="62"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="77" t="s">
+      <c r="P28" s="90"/>
+      <c r="Q28" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="R28" s="78"/>
-    </row>
-    <row r="29" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="73"/>
+      <c r="R28" s="87"/>
+    </row>
+    <row r="29" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="71"/>
       <c r="B29" s="19" t="s">
         <v>27</v>
       </c>
@@ -2203,19 +2289,19 @@
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="70" t="s">
+      <c r="K29" s="61"/>
+      <c r="L29" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="M29" s="71"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="79"/>
-      <c r="P29" s="81"/>
-      <c r="Q29" s="79"/>
-      <c r="R29" s="80"/>
-    </row>
-    <row r="30" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="73"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="76"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="90"/>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="89"/>
+    </row>
+    <row r="30" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="71"/>
       <c r="B30" s="19" t="s">
         <v>29</v>
       </c>
@@ -2227,17 +2313,17 @@
       <c r="H30" s="34"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="81"/>
-      <c r="Q30" s="79"/>
-      <c r="R30" s="80"/>
-    </row>
-    <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="73"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="90"/>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="89"/>
+    </row>
+    <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="71"/>
       <c r="B31" s="19" t="s">
         <v>30</v>
       </c>
@@ -2253,20 +2339,20 @@
       <c r="L31" s="19"/>
       <c r="M31" s="19"/>
       <c r="N31" s="26"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
       <c r="Q31" s="26"/>
       <c r="R31" s="40"/>
     </row>
-    <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="73"/>
+    <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="71"/>
       <c r="B32" s="19"/>
       <c r="C32" s="45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D32" s="41"/>
       <c r="E32" s="42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F32" s="41"/>
       <c r="G32" s="34"/>
@@ -2274,7 +2360,7 @@
       <c r="I32" s="36"/>
       <c r="J32" s="41"/>
       <c r="K32" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L32" s="41"/>
       <c r="M32" s="43"/>
@@ -2284,15 +2370,15 @@
       <c r="Q32" s="43"/>
       <c r="R32" s="44"/>
     </row>
-    <row r="33" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="73"/>
+    <row r="33" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="71"/>
       <c r="B33" s="19"/>
       <c r="C33" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33" s="41"/>
       <c r="E33" s="42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F33" s="41"/>
       <c r="G33" s="34"/>
@@ -2300,7 +2386,7 @@
       <c r="I33" s="36"/>
       <c r="J33" s="41"/>
       <c r="K33" s="47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L33" s="41"/>
       <c r="M33" s="46"/>
@@ -2310,15 +2396,15 @@
       <c r="Q33" s="43"/>
       <c r="R33" s="44"/>
     </row>
-    <row r="34" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="73"/>
+    <row r="34" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="71"/>
       <c r="B34" s="19"/>
       <c r="C34" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" s="41"/>
       <c r="E34" s="42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F34" s="43"/>
       <c r="G34" s="34"/>
@@ -2326,7 +2412,7 @@
       <c r="I34" s="36"/>
       <c r="J34" s="41"/>
       <c r="K34" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L34" s="41"/>
       <c r="M34" s="41"/>
@@ -2336,21 +2422,21 @@
       <c r="Q34" s="43"/>
       <c r="R34" s="44"/>
     </row>
-    <row r="35" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="73"/>
+    <row r="35" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="71"/>
       <c r="B35" s="19"/>
       <c r="C35" s="45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F35" s="27"/>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
       <c r="I35" s="36"/>
       <c r="K35" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L35" s="41"/>
       <c r="M35" s="41"/>
@@ -2360,15 +2446,15 @@
       <c r="Q35" s="43"/>
       <c r="R35" s="44"/>
     </row>
-    <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="73"/>
+    <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="71"/>
       <c r="B36" s="19"/>
       <c r="C36" s="45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D36" s="41"/>
       <c r="E36" s="42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F36" s="41"/>
       <c r="G36" s="41"/>
@@ -2376,7 +2462,7 @@
       <c r="I36" s="36"/>
       <c r="J36" s="34"/>
       <c r="K36" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L36" s="34"/>
       <c r="M36" s="34"/>
@@ -2386,15 +2472,15 @@
       <c r="Q36" s="43"/>
       <c r="R36" s="44"/>
     </row>
-    <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="73"/>
+    <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="71"/>
       <c r="B37" s="19"/>
       <c r="C37" s="45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D37" s="41"/>
       <c r="E37" s="42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F37" s="41"/>
       <c r="G37" s="41"/>
@@ -2402,7 +2488,7 @@
       <c r="I37" s="36"/>
       <c r="J37" s="34"/>
       <c r="K37" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L37" s="34"/>
       <c r="M37" s="34"/>
@@ -2412,8 +2498,8 @@
       <c r="Q37" s="43"/>
       <c r="R37" s="44"/>
     </row>
-    <row r="38" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="76"/>
+    <row r="38" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="72"/>
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
@@ -2432,127 +2518,127 @@
       <c r="Q38" s="29"/>
       <c r="R38" s="32"/>
     </row>
-    <row r="39" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="73" t="s">
+    <row r="39" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="71" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>32</v>
       </c>
       <c r="D39" s="19"/>
-      <c r="E39" s="48" t="s">
-        <v>33</v>
+      <c r="E39" s="69" t="s">
+        <v>49</v>
       </c>
       <c r="F39" s="19"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="55"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="54"/>
       <c r="L39" s="34"/>
-      <c r="M39" s="60"/>
+      <c r="M39" s="59"/>
       <c r="N39" s="34"/>
       <c r="O39" s="34"/>
-      <c r="P39" s="60"/>
+      <c r="P39" s="59"/>
       <c r="Q39" s="34"/>
       <c r="R39" s="38"/>
     </row>
-    <row r="40" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="73"/>
+    <row r="40" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="71"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="55"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="54"/>
       <c r="L40" s="34"/>
-      <c r="M40" s="60"/>
+      <c r="M40" s="59"/>
       <c r="N40" s="34"/>
       <c r="O40" s="34"/>
-      <c r="P40" s="60"/>
+      <c r="P40" s="59"/>
       <c r="Q40" s="34"/>
       <c r="R40" s="38"/>
     </row>
-    <row r="41" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="73"/>
+    <row r="41" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="71"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="55"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="54"/>
       <c r="L41" s="34"/>
-      <c r="M41" s="60"/>
+      <c r="M41" s="59"/>
       <c r="N41" s="34"/>
       <c r="O41" s="34"/>
-      <c r="P41" s="60"/>
+      <c r="P41" s="59"/>
       <c r="Q41" s="34"/>
       <c r="R41" s="38"/>
     </row>
-    <row r="42" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="73"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="55"/>
+    <row r="42" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="71"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="54"/>
       <c r="L42" s="34"/>
-      <c r="M42" s="60"/>
+      <c r="M42" s="59"/>
       <c r="N42" s="34"/>
       <c r="O42" s="34"/>
-      <c r="P42" s="60"/>
+      <c r="P42" s="59"/>
       <c r="Q42" s="34"/>
       <c r="R42" s="38"/>
     </row>
-    <row r="43" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="73"/>
+    <row r="43" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="71"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="8"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="55"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="54"/>
       <c r="L43" s="34"/>
-      <c r="M43" s="60"/>
+      <c r="M43" s="59"/>
       <c r="N43" s="34"/>
       <c r="O43" s="34"/>
-      <c r="P43" s="60"/>
+      <c r="P43" s="59"/>
       <c r="Q43" s="34"/>
       <c r="R43" s="38"/>
     </row>
-    <row r="44" spans="1:18" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="74"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="75"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="61"/>
-      <c r="N44" s="57"/>
-      <c r="O44" s="57"/>
-      <c r="P44" s="61"/>
-      <c r="Q44" s="57"/>
-      <c r="R44" s="58"/>
-    </row>
-    <row r="45" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="51"/>
+    <row r="44" spans="1:18" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="84"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="60"/>
+      <c r="N44" s="56"/>
+      <c r="O44" s="56"/>
+      <c r="P44" s="60"/>
+      <c r="Q44" s="56"/>
+      <c r="R44" s="57"/>
+    </row>
+    <row r="45" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="50"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -2564,14 +2650,14 @@
       <c r="J45" s="19"/>
       <c r="K45" s="19"/>
       <c r="L45" s="19"/>
-      <c r="M45" s="51"/>
+      <c r="M45" s="50"/>
       <c r="N45" s="19"/>
       <c r="O45" s="19"/>
       <c r="P45" s="19"/>
       <c r="Q45" s="19"/>
       <c r="R45" s="19"/>
     </row>
-    <row r="46" spans="1:18" ht="14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -2587,18 +2673,12 @@
       <c r="N46" s="19"/>
       <c r="O46" s="19"/>
       <c r="P46" s="19"/>
-      <c r="R46" s="52" t="s">
-        <v>34</v>
+      <c r="R46" s="51" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:A22"/>
-    <mergeCell ref="A23:A24"/>
     <mergeCell ref="L29:N29"/>
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="I39:I44"/>
@@ -2609,12 +2689,56 @@
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="O29:P29"/>
     <mergeCell ref="O30:P30"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:A22"/>
+    <mergeCell ref="A23:A24"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.27559055118110237" right="0.23622047244094491" top="0" bottom="0" header="0.39370078740157483" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="92" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4496A4-E505-46A9-9010-B660124B6A92}">
+  <dimension ref="B2:E11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="92"/>
+    <col min="2" max="3" width="16" style="92" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="92"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+    </row>
+    <row r="3" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+    </row>
+    <row r="4" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E11" s="93"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/sks-kobe-t/pdf/report1.xlsx
+++ b/sks-kobe-t/pdf/report1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saime\Documents\GitHub\sks-kobe\sks-kobe-t\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31ED096-F742-4102-A6EB-CBEA7938688A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CFD529-B347-4205-B058-08D44DC6457D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{67705DE9-D51C-41E7-8EAF-0A0986583F98}"/>
   </bookViews>
@@ -910,15 +910,57 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -928,9 +970,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -945,45 +984,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1197,8 +1197,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>323850</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1214,7 +1214,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3800475" y="9544050"/>
-          <a:ext cx="342900" cy="1457325"/>
+          <a:ext cx="342900" cy="1628775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1333,6 +1333,54 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2049" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED6CEAF8-3E25-448F-8FFA-33A0B95318BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3562350" y="714375"/>
+          <a:ext cx="2476500" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1641,7 +1689,7 @@
   <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1664,26 +1712,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
     </row>
     <row r="2" spans="1:18" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1780,15 +1828,15 @@
       <c r="R5" s="16"/>
     </row>
     <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
       <c r="H6" s="76"/>
       <c r="I6" s="17"/>
       <c r="J6" s="18"/>
@@ -1801,16 +1849,16 @@
       <c r="R6" s="20"/>
     </row>
     <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="79"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="92"/>
       <c r="I7" s="21"/>
       <c r="J7" s="22"/>
       <c r="K7" s="23"/>
@@ -1823,7 +1871,7 @@
       <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="93" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="17"/>
@@ -1845,7 +1893,7 @@
       <c r="R8" s="25"/>
     </row>
     <row r="9" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="80"/>
+      <c r="A9" s="93"/>
       <c r="B9" s="17" t="s">
         <v>11</v>
       </c>
@@ -1869,7 +1917,7 @@
       <c r="R9" s="25"/>
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
+      <c r="A10" s="93"/>
       <c r="B10" s="17"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
@@ -1889,7 +1937,7 @@
       <c r="R10" s="32"/>
     </row>
     <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="80"/>
+      <c r="A11" s="93"/>
       <c r="B11" s="33"/>
       <c r="C11" s="34"/>
       <c r="D11" s="35"/>
@@ -1909,7 +1957,7 @@
       <c r="R11" s="38"/>
     </row>
     <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="80"/>
+      <c r="A12" s="93"/>
       <c r="B12" s="33"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
@@ -1929,7 +1977,7 @@
       <c r="R12" s="38"/>
     </row>
     <row r="13" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="80"/>
+      <c r="A13" s="93"/>
       <c r="B13" s="33"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
@@ -1949,7 +1997,7 @@
       <c r="R13" s="38"/>
     </row>
     <row r="14" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="80"/>
+      <c r="A14" s="93"/>
       <c r="B14" s="33"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
@@ -1969,7 +2017,7 @@
       <c r="R14" s="38"/>
     </row>
     <row r="15" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="80"/>
+      <c r="A15" s="93"/>
       <c r="B15" s="33"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
@@ -1989,7 +2037,7 @@
       <c r="R15" s="38"/>
     </row>
     <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="80"/>
+      <c r="A16" s="93"/>
       <c r="B16" s="33"/>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
@@ -2009,7 +2057,7 @@
       <c r="R16" s="38"/>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="80"/>
+      <c r="A17" s="93"/>
       <c r="B17" s="33"/>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
@@ -2029,7 +2077,7 @@
       <c r="R17" s="38"/>
     </row>
     <row r="18" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="80"/>
+      <c r="A18" s="93"/>
       <c r="B18" s="33"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
@@ -2049,7 +2097,7 @@
       <c r="R18" s="38"/>
     </row>
     <row r="19" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="80"/>
+      <c r="A19" s="93"/>
       <c r="B19" s="17"/>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
@@ -2069,7 +2117,7 @@
       <c r="R19" s="38"/>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="80"/>
+      <c r="A20" s="93"/>
       <c r="B20" s="17"/>
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
@@ -2089,7 +2137,7 @@
       <c r="R20" s="38"/>
     </row>
     <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="80"/>
+      <c r="A21" s="93"/>
       <c r="B21" s="17" t="s">
         <v>14</v>
       </c>
@@ -2113,7 +2161,7 @@
       <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="81"/>
+      <c r="A22" s="94"/>
       <c r="B22" s="39" t="s">
         <v>16</v>
       </c>
@@ -2137,7 +2185,7 @@
       <c r="R22" s="32"/>
     </row>
     <row r="23" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="86" t="s">
         <v>35</v>
       </c>
       <c r="B23" s="19" t="s">
@@ -2161,7 +2209,7 @@
       <c r="R23" s="25"/>
     </row>
     <row r="24" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="71"/>
+      <c r="A24" s="77"/>
       <c r="B24" s="19" t="s">
         <v>34</v>
       </c>
@@ -2183,7 +2231,7 @@
       <c r="R24" s="25"/>
     </row>
     <row r="25" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="86" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -2207,7 +2255,7 @@
       <c r="R25" s="16"/>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="71"/>
+      <c r="A26" s="77"/>
       <c r="B26" s="53" t="s">
         <v>21</v>
       </c>
@@ -2229,7 +2277,7 @@
       <c r="R26" s="25"/>
     </row>
     <row r="27" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="72"/>
+      <c r="A27" s="80"/>
       <c r="B27" s="29" t="s">
         <v>22</v>
       </c>
@@ -2251,7 +2299,7 @@
       <c r="R27" s="32"/>
     </row>
     <row r="28" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="77" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="19" t="s">
@@ -2269,17 +2317,17 @@
       <c r="L28" s="64"/>
       <c r="M28" s="62"/>
       <c r="N28" s="65"/>
-      <c r="O28" s="88" t="s">
+      <c r="O28" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="86" t="s">
+      <c r="P28" s="85"/>
+      <c r="Q28" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="R28" s="87"/>
+      <c r="R28" s="82"/>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="71"/>
+      <c r="A29" s="77"/>
       <c r="B29" s="19" t="s">
         <v>27</v>
       </c>
@@ -2290,18 +2338,18 @@
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
       <c r="K29" s="61"/>
-      <c r="L29" s="82" t="s">
+      <c r="L29" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="M29" s="83"/>
+      <c r="M29" s="75"/>
       <c r="N29" s="76"/>
-      <c r="O29" s="88"/>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="88"/>
-      <c r="R29" s="89"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="84"/>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="71"/>
+      <c r="A30" s="77"/>
       <c r="B30" s="19" t="s">
         <v>29</v>
       </c>
@@ -2317,13 +2365,13 @@
       <c r="L30" s="66"/>
       <c r="M30" s="67"/>
       <c r="N30" s="68"/>
-      <c r="O30" s="88"/>
-      <c r="P30" s="90"/>
-      <c r="Q30" s="88"/>
-      <c r="R30" s="89"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="85"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="84"/>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="71"/>
+      <c r="A31" s="77"/>
       <c r="B31" s="19" t="s">
         <v>30</v>
       </c>
@@ -2345,7 +2393,7 @@
       <c r="R31" s="40"/>
     </row>
     <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="71"/>
+      <c r="A32" s="77"/>
       <c r="B32" s="19"/>
       <c r="C32" s="45" t="s">
         <v>36</v>
@@ -2371,7 +2419,7 @@
       <c r="R32" s="44"/>
     </row>
     <row r="33" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="71"/>
+      <c r="A33" s="77"/>
       <c r="B33" s="19"/>
       <c r="C33" s="45" t="s">
         <v>37</v>
@@ -2397,7 +2445,7 @@
       <c r="R33" s="44"/>
     </row>
     <row r="34" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="71"/>
+      <c r="A34" s="77"/>
       <c r="B34" s="19"/>
       <c r="C34" s="45" t="s">
         <v>38</v>
@@ -2423,7 +2471,7 @@
       <c r="R34" s="44"/>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="71"/>
+      <c r="A35" s="77"/>
       <c r="B35" s="19"/>
       <c r="C35" s="45" t="s">
         <v>39</v>
@@ -2447,7 +2495,7 @@
       <c r="R35" s="44"/>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="71"/>
+      <c r="A36" s="77"/>
       <c r="B36" s="19"/>
       <c r="C36" s="45" t="s">
         <v>40</v>
@@ -2473,7 +2521,7 @@
       <c r="R36" s="44"/>
     </row>
     <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="71"/>
+      <c r="A37" s="77"/>
       <c r="B37" s="19"/>
       <c r="C37" s="45" t="s">
         <v>41</v>
@@ -2499,7 +2547,7 @@
       <c r="R37" s="44"/>
     </row>
     <row r="38" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="72"/>
+      <c r="A38" s="80"/>
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
@@ -2519,7 +2567,7 @@
       <c r="R38" s="32"/>
     </row>
     <row r="39" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="71" t="s">
+      <c r="A39" s="77" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="26" t="s">
@@ -2530,7 +2578,7 @@
         <v>49</v>
       </c>
       <c r="F39" s="19"/>
-      <c r="I39" s="85"/>
+      <c r="I39" s="79"/>
       <c r="J39" s="58"/>
       <c r="K39" s="54"/>
       <c r="L39" s="34"/>
@@ -2542,14 +2590,14 @@
       <c r="R39" s="38"/>
     </row>
     <row r="40" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="71"/>
+      <c r="A40" s="77"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
-      <c r="I40" s="85"/>
+      <c r="I40" s="79"/>
       <c r="J40" s="58"/>
       <c r="K40" s="54"/>
       <c r="L40" s="34"/>
@@ -2561,14 +2609,14 @@
       <c r="R40" s="38"/>
     </row>
     <row r="41" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="71"/>
+      <c r="A41" s="77"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
-      <c r="I41" s="85"/>
+      <c r="I41" s="79"/>
       <c r="J41" s="59"/>
       <c r="K41" s="54"/>
       <c r="L41" s="34"/>
@@ -2580,14 +2628,14 @@
       <c r="R41" s="38"/>
     </row>
     <row r="42" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="71"/>
+      <c r="A42" s="77"/>
       <c r="C42" s="48"/>
       <c r="D42" s="48"/>
       <c r="E42" s="48"/>
       <c r="F42" s="48"/>
       <c r="G42" s="48"/>
       <c r="H42" s="48"/>
-      <c r="I42" s="85"/>
+      <c r="I42" s="79"/>
       <c r="J42" s="59"/>
       <c r="K42" s="54"/>
       <c r="L42" s="34"/>
@@ -2599,14 +2647,14 @@
       <c r="R42" s="38"/>
     </row>
     <row r="43" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="71"/>
+      <c r="A43" s="77"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="8"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="85"/>
+      <c r="I43" s="79"/>
       <c r="J43" s="59"/>
       <c r="K43" s="54"/>
       <c r="L43" s="34"/>
@@ -2618,7 +2666,7 @@
       <c r="R43" s="38"/>
     </row>
     <row r="44" spans="1:18" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="84"/>
+      <c r="A44" s="78"/>
       <c r="B44" s="49"/>
       <c r="C44" s="49"/>
       <c r="D44" s="49"/>
@@ -2626,7 +2674,7 @@
       <c r="F44" s="49"/>
       <c r="G44" s="49"/>
       <c r="H44" s="49"/>
-      <c r="I44" s="85"/>
+      <c r="I44" s="79"/>
       <c r="J44" s="60"/>
       <c r="K44" s="55"/>
       <c r="L44" s="56"/>
@@ -2679,6 +2727,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:A22"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="L29:N29"/>
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="I39:I44"/>
@@ -2689,12 +2743,6 @@
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="O29:P29"/>
     <mergeCell ref="O30:P30"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:A22"/>
-    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2706,7 +2754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4496A4-E505-46A9-9010-B660124B6A92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4496A4-E505-46A9-9010-B660124B6A92}">
   <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2715,30 +2763,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="92"/>
-    <col min="2" max="3" width="16" style="92" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="92"/>
+    <col min="1" max="1" width="9" style="71"/>
+    <col min="2" max="3" width="16" style="71" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="71"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
     </row>
     <row r="3" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
     </row>
     <row r="4" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E11" s="93"/>
+      <c r="E11" s="72"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>